--- a/India.xlsx
+++ b/India.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Country</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>West Bengal</t>
+  </si>
+  <si>
+    <t>ladakh</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
   </si>
 </sst>
 </file>
@@ -882,6 +888,22 @@
       <c r="E29" s="3"/>
       <c r="F29" s="6"/>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="F3:G3"/>
